--- a/TP 7/Ejercicio 3/ejercicio3.xlsx
+++ b/TP 7/Ejercicio 3/ejercicio3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Valor</t>
   </si>
@@ -44,10 +44,22 @@
     <t>LimSup</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>Chi-cuadrado</t>
   </si>
   <si>
-    <t>ERROR TOTAL</t>
+    <t>Chi Cuadrado TOTAL</t>
+  </si>
+  <si>
+    <t>X critico</t>
+  </si>
+  <si>
+    <t>DISTRIBUCIÓN UNIFORME</t>
+  </si>
+  <si>
+    <t>b = 22</t>
+  </si>
+  <si>
+    <t>a = 12</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -93,6 +105,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -307,11 +322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-305013312"/>
-        <c:axId val="-305012224"/>
+        <c:axId val="-1373536176"/>
+        <c:axId val="-1373539440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-305013312"/>
+        <c:axId val="-1373536176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +369,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305012224"/>
+        <c:crossAx val="-1373539440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305012224"/>
+        <c:axId val="-1373539440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +428,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305013312"/>
+        <c:crossAx val="-1373536176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,34 +686,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-305011680"/>
-        <c:axId val="-305006240"/>
+        <c:axId val="-1373530192"/>
+        <c:axId val="-1373526928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-305011680"/>
+        <c:axId val="-1373530192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +776,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305006240"/>
+        <c:crossAx val="-1373526928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305006240"/>
+        <c:axId val="-1373526928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +835,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305011680"/>
+        <c:crossAx val="-1373530192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1960,15 +1975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2314,15 +2329,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="14" max="15" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -2530,7 +2546,27 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N10:O10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2540,12 +2576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2560,10 +2597,10 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.11559835165286525</v>
+        <v>0.87888961365558771</v>
       </c>
       <c r="B2">
-        <v>0.50987215167351152</v>
+        <v>0.32066697301440639</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -2602,11 +2639,11 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:B66" ca="1" si="0">RAND()</f>
-        <v>4.1514434421502266E-2</v>
+        <f t="shared" ref="A3:A66" ca="1" si="0">RAND()</f>
+        <v>6.4391408517353255E-2</v>
       </c>
       <c r="B3">
-        <v>0.52903087944987914</v>
+        <v>0.69131131146408975</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -2655,10 +2692,10 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82410631371380605</v>
+        <v>0.16786448005624244</v>
       </c>
       <c r="B4">
-        <v>0.40365986626369865</v>
+        <v>0.94254018143703067</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -2668,23 +2705,23 @@
       </c>
       <c r="F4">
         <f>FREQUENCY($B$2:$B$201,F3)-FREQUENCY($B$2:$B$201,F2)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:O4" si="2">FREQUENCY($B$2:$B$201,G3)-FREQUENCY($B$2:$B$201,G2)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
@@ -2692,1843 +2729,1850 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43876059911111964</v>
+        <v>0.24795531385893732</v>
       </c>
       <c r="B5">
-        <v>0.3460805565674494</v>
+        <v>8.4295164912989717E-2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5">
-        <f>Hoja1!C2-'Números aleatorios'!F4</f>
-        <v>1</v>
+        <f>(Hoja1!C2-'Números aleatorios'!F4)^2/Hoja1!C2</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f>Hoja1!D2-'Números aleatorios'!G4</f>
-        <v>4</v>
+        <f>(Hoja1!D2-'Números aleatorios'!G4)^2/Hoja1!D2</f>
+        <v>0.05</v>
       </c>
       <c r="H5">
-        <f>Hoja1!E2-'Números aleatorios'!H4</f>
-        <v>-6</v>
+        <f>(Hoja1!E2-'Números aleatorios'!H4)^2/Hoja1!E2</f>
+        <v>1.1363636363636365</v>
       </c>
       <c r="I5">
-        <f>Hoja1!F2-'Números aleatorios'!I4</f>
-        <v>4</v>
+        <f>(Hoja1!F2-'Números aleatorios'!I4)^2/Hoja1!F2</f>
+        <v>0.47368421052631576</v>
       </c>
       <c r="J5">
-        <f>Hoja1!G2-'Números aleatorios'!J4</f>
-        <v>-4</v>
+        <f>(Hoja1!G2-'Números aleatorios'!J4)^2/Hoja1!G2</f>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K5">
-        <f>Hoja1!H2-'Números aleatorios'!K4</f>
-        <v>-2</v>
+        <f>(Hoja1!H2-'Números aleatorios'!K4)^2/Hoja1!H2</f>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <f>Hoja1!I2-'Números aleatorios'!L4</f>
-        <v>5</v>
+        <f>(Hoja1!I2-'Números aleatorios'!L4)^2/Hoja1!I2</f>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>Hoja1!J2-'Números aleatorios'!M4</f>
-        <v>3</v>
+        <f>(Hoja1!J2-'Números aleatorios'!M4)^2/Hoja1!J2</f>
+        <v>0.84210526315789469</v>
       </c>
       <c r="N5">
-        <f>Hoja1!K2-'Números aleatorios'!N4</f>
-        <v>-4</v>
+        <f>(Hoja1!K2-'Números aleatorios'!N4)^2/Hoja1!K2</f>
+        <v>0.45</v>
       </c>
       <c r="O5">
-        <f>Hoja1!L2-'Números aleatorios'!O4</f>
-        <v>-1</v>
+        <f>(Hoja1!L2-'Números aleatorios'!O4)^2/Hoja1!L2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5076021500770157</v>
+        <v>0.18834750045365234</v>
       </c>
       <c r="B6">
-        <v>0.64984712383461363</v>
+        <v>0.19763473275628651</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87207700327866633</v>
+        <v>2.4266321832692062E-2</v>
       </c>
       <c r="B7">
-        <v>0.5564773034293764</v>
+        <v>0.93015632935519243</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1094468989128532E-2</v>
+        <v>0.69114028068266986</v>
       </c>
       <c r="B8">
-        <v>0.21830449237909855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.2267939658662016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87829489278932671</v>
+        <v>0.34579812080538563</v>
       </c>
       <c r="B9">
-        <v>9.48800238858587E-2</v>
-      </c>
-      <c r="G9" t="s">
+        <v>0.41319934735772323</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H9">
-        <f>SUMSQ(F5:O5)</f>
-        <v>140</v>
+        <f>SUM(F5:O5)</f>
+        <v>3.3426293005240377</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <f>_xlfn.CHISQ.INV(0.95,7)</f>
+        <v>14.067140449340165</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4613059026142392</v>
+        <v>0.83038310254341174</v>
       </c>
       <c r="B10">
-        <v>0.42820763475509005</v>
+        <v>0.843812721295083</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2278216511989273E-2</v>
+        <v>0.6208282593964235</v>
       </c>
       <c r="B11">
-        <v>0.40680665645408076</v>
+        <v>0.303026483783573</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95418925764971363</v>
+        <v>0.33323825187501332</v>
       </c>
       <c r="B12">
-        <v>0.88046178584812596</v>
+        <v>0.7412222003357497</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87657817793001236</v>
+        <v>0.44507804413771113</v>
       </c>
       <c r="B13">
-        <v>0.91536038644434559</v>
+        <v>0.38422134444576161</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98891628165964673</v>
+        <v>0.31575609393412485</v>
       </c>
       <c r="B14">
-        <v>0.91373324161663017</v>
+        <v>0.94584531228126267</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8607806838539841</v>
+        <v>0.13722431600017271</v>
       </c>
       <c r="B15">
-        <v>0.28761902693494745</v>
+        <v>0.14531034310857338</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23116500043701937</v>
+        <v>0.6920117657169057</v>
       </c>
       <c r="B16">
-        <v>0.25965348515844533</v>
+        <v>0.76568180243991735</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1773519469800116E-2</v>
+        <v>0.98914228199356213</v>
       </c>
       <c r="B17">
-        <v>0.62548705278177918</v>
+        <v>0.39472652053325463</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78130106929376264</v>
+        <v>3.4352159217962308E-2</v>
       </c>
       <c r="B18">
-        <v>0.26769487306798956</v>
+        <v>0.2342529929200774</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30035207407429743</v>
+        <v>0.47122021099996569</v>
       </c>
       <c r="B19">
-        <v>0.15230616294633359</v>
+        <v>4.0336729228774071E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14438534379740864</v>
+        <v>0.89836178572471415</v>
       </c>
       <c r="B20">
-        <v>0.15115485155657826</v>
+        <v>0.80972708534865778</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79486724778094042</v>
+        <v>0.81297764749225521</v>
       </c>
       <c r="B21">
-        <v>0.70926300005191134</v>
+        <v>0.10759979781449269</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49667984072164517</v>
+        <v>0.89335174686755281</v>
       </c>
       <c r="B22">
-        <v>0.9354977702844135</v>
+        <v>0.56743957004382684</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85913719577647896</v>
+        <v>0.77355043936171075</v>
       </c>
       <c r="B23">
-        <v>0.75939272282745607</v>
+        <v>0.62083918107414893</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79200380803284254</v>
+        <v>0.78477621824449562</v>
       </c>
       <c r="B24">
-        <v>1.9904629790118755E-2</v>
+        <v>6.7009124441145262E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68957805034986275</v>
+        <v>0.90709185741783294</v>
       </c>
       <c r="B25">
-        <v>0.5815449753247709</v>
+        <v>0.94755464555546876</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67390581415910189</v>
+        <v>0.26379079054609467</v>
       </c>
       <c r="B26">
-        <v>0.89521021846258153</v>
+        <v>1.2947368064092579E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66529144632013881</v>
+        <v>0.48153048718459657</v>
       </c>
       <c r="B27">
-        <v>0.28977543835428754</v>
+        <v>0.56385575163154156</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65392888413703432</v>
+        <v>0.71466860873201954</v>
       </c>
       <c r="B28">
-        <v>0.59164687656809667</v>
+        <v>0.46965038049595142</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4681369705965812E-2</v>
+        <v>0.29769558894649917</v>
       </c>
       <c r="B29">
-        <v>0.75619447932760231</v>
+        <v>0.34226860795458536</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29877841135199834</v>
+        <v>0.90091875559200207</v>
       </c>
       <c r="B30">
-        <v>0.27749588616568666</v>
+        <v>0.85793778808552157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13625704314773246</v>
+        <v>0.43035513579143847</v>
       </c>
       <c r="B31">
-        <v>0.90531644664584665</v>
+        <v>0.22735998218242714</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21024500821461278</v>
+        <v>0.81311579124185451</v>
       </c>
       <c r="B32">
-        <v>0.45521101546840748</v>
+        <v>0.98747741994322202</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2409471027534469E-2</v>
+        <v>0.21816827013908524</v>
       </c>
       <c r="B33">
-        <v>0.7123574348885463</v>
+        <v>0.82344478048281633</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87183573269369485</v>
+        <v>0.17346948380840055</v>
       </c>
       <c r="B34">
-        <v>0.95630530427779747</v>
+        <v>3.7116249168763216E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8971278339115205E-2</v>
+        <v>0.82939644865106665</v>
       </c>
       <c r="B35">
-        <v>0.67531371900830817</v>
+        <v>0.73425674194069135</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9296311415754458</v>
+        <v>0.58509980467241807</v>
       </c>
       <c r="B36">
-        <v>0.16590744370388699</v>
+        <v>0.76295055887136809</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25875728051539593</v>
+        <v>0.98540834050100223</v>
       </c>
       <c r="B37">
-        <v>0.96377678165621039</v>
+        <v>0.44328292682500803</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36506441937432432</v>
+        <v>0.38998906163247526</v>
       </c>
       <c r="B38">
-        <v>0.44638605776097129</v>
+        <v>0.92937895033243101</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59954023260913625</v>
+        <v>0.87310757766419278</v>
       </c>
       <c r="B39">
-        <v>0.43994065883541089</v>
+        <v>0.45768565448563325</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92306168116728493</v>
+        <v>0.36336538769440041</v>
       </c>
       <c r="B40">
-        <v>0.5053571717177997</v>
+        <v>0.77325175232524934</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11497114319958457</v>
+        <v>0.60982195968757325</v>
       </c>
       <c r="B41">
-        <v>0.2599864796866499</v>
+        <v>0.83932601012579844</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16990864401251837</v>
+        <v>0.94624278962587571</v>
       </c>
       <c r="B42">
-        <v>0.10296616964078886</v>
+        <v>0.40400112809678645</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48483902905816023</v>
+        <v>0.58253472166431253</v>
       </c>
       <c r="B43">
-        <v>6.6928321371806598E-2</v>
+        <v>0.46989553396049688</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59124130386767337</v>
+        <v>0.27769235351369759</v>
       </c>
       <c r="B44">
-        <v>0.16393817182677461</v>
+        <v>0.21251694171486402</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91258513316605594</v>
+        <v>0.79724614357804058</v>
       </c>
       <c r="B45">
-        <v>0.32179477806494894</v>
+        <v>0.67089216741450475</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84222145403297533</v>
+        <v>3.0375594545300477E-2</v>
       </c>
       <c r="B46">
-        <v>0.21217418588357584</v>
+        <v>0.45850492893887362</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59188119493485059</v>
+        <v>0.32124408489589418</v>
       </c>
       <c r="B47">
-        <v>0.24091271854255147</v>
+        <v>0.7236727606120561</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46831513620951992</v>
+        <v>0.88227536775975823</v>
       </c>
       <c r="B48">
-        <v>0.71555213600847456</v>
+        <v>0.9918029772067638</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71374029703413433</v>
+        <v>0.32346141960054531</v>
       </c>
       <c r="B49">
-        <v>0.82838425079595046</v>
+        <v>0.57028223399041678</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31192813329549196</v>
+        <v>3.0331680638577163E-2</v>
       </c>
       <c r="B50">
-        <v>0.96014396521953904</v>
+        <v>0.57547688308101952</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7441451154995099</v>
+        <v>0.48986798555248279</v>
       </c>
       <c r="B51">
-        <v>0.12864048613888623</v>
+        <v>0.93062183788076835</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48627972767752936</v>
+        <v>0.31658722459344613</v>
       </c>
       <c r="B52">
-        <v>1.0885165972948974E-2</v>
+        <v>0.11886414646078791</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3240110316402514E-2</v>
+        <v>0.9212955352544957</v>
       </c>
       <c r="B53">
-        <v>0.74912615017478956</v>
+        <v>0.59835216368746746</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24939889815325511</v>
+        <v>0.81949633775912678</v>
       </c>
       <c r="B54">
-        <v>0.64850238676544592</v>
+        <v>0.88691522460623751</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96762346962716816</v>
+        <v>0.75183243708935987</v>
       </c>
       <c r="B55">
-        <v>0.42521162798147083</v>
+        <v>0.9987854971380985</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23372785054872025</v>
+        <v>0.88639373210979622</v>
       </c>
       <c r="B56">
-        <v>0.83600253198169905</v>
+        <v>0.80171078065009105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26276033490358852</v>
+        <v>0.81916067603110831</v>
       </c>
       <c r="B57">
-        <v>0.11206264675817079</v>
+        <v>0.16576869747757494</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76225179720295388</v>
+        <v>1.327333577719858E-2</v>
       </c>
       <c r="B58">
-        <v>0.75324656466023954</v>
+        <v>0.80698561354617149</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54324963422452444</v>
+        <v>0.8751498221597025</v>
       </c>
       <c r="B59">
-        <v>0.87702784446390503</v>
+        <v>0.84614817596726755</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19392316785417552</v>
+        <v>0.56959937943753636</v>
       </c>
       <c r="B60">
-        <v>0.20469816088173121</v>
+        <v>8.2442094622670825E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2495825143509358E-2</v>
+        <v>0.23055360218972476</v>
       </c>
       <c r="B61">
-        <v>0.51690812186376744</v>
+        <v>0.886544405449054</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27120926701381809</v>
+        <v>0.75627939818781686</v>
       </c>
       <c r="B62">
-        <v>0.27064729950318367</v>
+        <v>0.4508331437257912</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5528932178919708E-2</v>
+        <v>0.56258862513060559</v>
       </c>
       <c r="B63">
-        <v>1.8396802827891801E-2</v>
+        <v>0.64968144369355274</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88338974546267124</v>
+        <v>5.7309296354444372E-2</v>
       </c>
       <c r="B64">
-        <v>0.89644916690853071</v>
+        <v>0.70211984206849509</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48574626965278844</v>
+        <v>0.30397768810548742</v>
       </c>
       <c r="B65">
-        <v>0.9183738742914338</v>
+        <v>0.25773974752655582</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56386082951820682</v>
+        <v>0.81460409038706572</v>
       </c>
       <c r="B66">
-        <v>0.91408087862405329</v>
+        <v>0.55066015205173691</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <f t="shared" ref="A67:B130" ca="1" si="3">RAND()</f>
-        <v>0.2326485299629456</v>
+        <f t="shared" ref="A67:A130" ca="1" si="3">RAND()</f>
+        <v>0.35525598983138118</v>
       </c>
       <c r="B67">
-        <v>0.94843120681749382</v>
+        <v>0.17381341971914654</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75095099459191772</v>
+        <v>0.10489824136578751</v>
       </c>
       <c r="B68">
-        <v>0.21361022545023867</v>
+        <v>0.58360791496629671</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34371887706134319</v>
+        <v>0.12586947496253076</v>
       </c>
       <c r="B69">
-        <v>0.60630854800281631</v>
+        <v>0.92855955390989542</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62002976716912084</v>
+        <v>0.22312463697589535</v>
       </c>
       <c r="B70">
-        <v>0.82497822900467088</v>
+        <v>0.15754770861225775</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9413723997536243</v>
+        <v>0.65437925000602648</v>
       </c>
       <c r="B71">
-        <v>0.88550638372286283</v>
+        <v>0.40155567585545715</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47283809460788073</v>
+        <v>0.79205284250519514</v>
       </c>
       <c r="B72">
-        <v>0.41930021896820868</v>
+        <v>5.5857821819601083E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76882183919801383</v>
+        <v>0.1733994135568232</v>
       </c>
       <c r="B73">
-        <v>4.7412373106901939E-2</v>
+        <v>0.41904450135927229</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34079628628009795</v>
+        <v>0.11606332205039471</v>
       </c>
       <c r="B74">
-        <v>2.6138460991334433E-2</v>
+        <v>0.70059860564089038</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81534292612632464</v>
+        <v>0.23247752965707769</v>
       </c>
       <c r="B75">
-        <v>0.33253070972127707</v>
+        <v>0.95567120854562149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83386637338588165</v>
+        <v>0.20160084230052433</v>
       </c>
       <c r="B76">
-        <v>0.54280647485428413</v>
+        <v>0.84316598330458714</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39096140298089233</v>
+        <v>5.4741525393609547E-2</v>
       </c>
       <c r="B77">
-        <v>0.17029866855413511</v>
+        <v>2.6986727460983739E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56028757670760143</v>
+        <v>0.62368927691335418</v>
       </c>
       <c r="B78">
-        <v>0.36865756233529456</v>
+        <v>0.14167269863569509</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6837964649299928</v>
+        <v>4.6610423608043572E-2</v>
       </c>
       <c r="B79">
-        <v>3.5626683675267778E-2</v>
+        <v>0.90709376382189921</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71040554184242444</v>
+        <v>0.9340044703273519</v>
       </c>
       <c r="B80">
-        <v>0.80989007649635281</v>
+        <v>7.5101844628715497E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14221209249920541</v>
+        <v>0.93068134457724394</v>
       </c>
       <c r="B81">
-        <v>0.24202192754642393</v>
+        <v>0.9011324412703835</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79744487421382737</v>
+        <v>0.67201427469840713</v>
       </c>
       <c r="B82">
-        <v>0.49538653718055559</v>
+        <v>0.28591151541525683</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13232217100333976</v>
+        <v>0.55356057080351584</v>
       </c>
       <c r="B83">
-        <v>0.56827314418045227</v>
+        <v>0.12431042632169287</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70179376684733696</v>
+        <v>0.79055875120075481</v>
       </c>
       <c r="B84">
-        <v>0.28229902609517366</v>
+        <v>0.27949789127560998</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5391012650306154</v>
+        <v>1.9880465302279826E-2</v>
       </c>
       <c r="B85">
-        <v>0.19788602218942175</v>
+        <v>0.12372450794741707</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72934454665442772</v>
+        <v>2.1232111339794635E-2</v>
       </c>
       <c r="B86">
-        <v>1.4304877793851367E-2</v>
+        <v>0.20722572047743615</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86548103043932245</v>
+        <v>0.78500836962508203</v>
       </c>
       <c r="B87">
-        <v>0.41985312510847161</v>
+        <v>0.90176000593532157</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67908372207237733</v>
+        <v>0.44070162827446258</v>
       </c>
       <c r="B88">
-        <v>0.4217430443078598</v>
+        <v>0.57977324456888302</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87128064631769164</v>
+        <v>0.16530328358108659</v>
       </c>
       <c r="B89">
-        <v>0.4979170162953781</v>
+        <v>0.37156391162935654</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78434947898298568</v>
+        <v>0.63425760190025371</v>
       </c>
       <c r="B90">
-        <v>0.88224199948278781</v>
+        <v>0.56862639325518649</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9994425543571381E-2</v>
+        <v>0.7208410757448146</v>
       </c>
       <c r="B91">
-        <v>0.96912926167907365</v>
+        <v>0.28556474022965117</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51521111479021042</v>
+        <v>1.8282468541590102E-2</v>
       </c>
       <c r="B92">
-        <v>0.94671240842484805</v>
+        <v>2.3724576011796006E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68634889248641839</v>
+        <v>0.41740477054411973</v>
       </c>
       <c r="B93">
-        <v>0.51990261525279768</v>
+        <v>0.75660218211209596</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6229682913615306E-2</v>
+        <v>0.15315760650761268</v>
       </c>
       <c r="B94">
-        <v>0.75757446024224573</v>
+        <v>0.75406080550447896</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64904252471463653</v>
+        <v>0.845979182724929</v>
       </c>
       <c r="B95">
-        <v>8.5398232183848344E-2</v>
+        <v>0.81463698491881975</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4781388326589417E-2</v>
+        <v>0.48093104173473511</v>
       </c>
       <c r="B96">
-        <v>0.25680382977460126</v>
+        <v>1.1532316395575171E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43429421056428275</v>
+        <v>0.96297781732881604</v>
       </c>
       <c r="B97">
-        <v>0.67923090115513574</v>
+        <v>0.5523637691618275</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3687881083569939E-2</v>
+        <v>0.51790608838562313</v>
       </c>
       <c r="B98">
-        <v>0.88219499744370866</v>
+        <v>0.22179472399728895</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54838814364494004</v>
+        <v>0.20538980904545268</v>
       </c>
       <c r="B99">
-        <v>0.68544548898506086</v>
+        <v>0.52437971691823393</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51786523004814178</v>
+        <v>0.63942753910495054</v>
       </c>
       <c r="B100">
-        <v>0.98165155464662934</v>
+        <v>0.8708672324242791</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47433248502179104</v>
+        <v>0.63508766477605538</v>
       </c>
       <c r="B101">
-        <v>0.91723294712452308</v>
+        <v>0.31456237801114573</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45952001333753045</v>
+        <v>0.14872528940741603</v>
       </c>
       <c r="B102">
-        <v>0.23427081649666981</v>
+        <v>0.54462115780042153</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77034721926222516</v>
+        <v>0.43482092712845277</v>
       </c>
       <c r="B103">
-        <v>0.85842139685639085</v>
+        <v>0.92565959154075272</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16613767517721967</v>
+        <v>0.94532583240877122</v>
       </c>
       <c r="B104">
-        <v>7.9979011290763791E-2</v>
+        <v>6.2607558505907268E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63996331957673147</v>
+        <v>0.22627552322188649</v>
       </c>
       <c r="B105">
-        <v>0.53445388714616637</v>
+        <v>0.31214847984728833</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9574569852817203</v>
+        <v>0.22836721625245149</v>
       </c>
       <c r="B106">
-        <v>0.39862441657358594</v>
+        <v>0.81826748271611915</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4848427024443468</v>
+        <v>0.14209558689356117</v>
       </c>
       <c r="B107">
-        <v>0.3599335751054199</v>
+        <v>0.69817223620815538</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6317357938472385E-3</v>
+        <v>0.58279716316338936</v>
       </c>
       <c r="B108">
-        <v>0.82847678260568602</v>
+        <v>0.16824380476412204</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84030205936364943</v>
+        <v>0.47011589018536493</v>
       </c>
       <c r="B109">
-        <v>0.56554669179604511</v>
+        <v>0.26310958492371728</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52723218343947353</v>
+        <v>0.79009918193816109</v>
       </c>
       <c r="B110">
-        <v>0.46124135832041335</v>
+        <v>0.7719712306949098</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32419795834638865</v>
+        <v>0.62042781722826834</v>
       </c>
       <c r="B111">
-        <v>0.36411111965557719</v>
+        <v>0.30122084841256258</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95846012138744052</v>
+        <v>0.13264620291123974</v>
       </c>
       <c r="B112">
-        <v>0.23324026907821738</v>
+        <v>0.21776111760533878</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1421789324589553</v>
+        <v>0.8546481956407731</v>
       </c>
       <c r="B113">
-        <v>0.98348013219578079</v>
+        <v>0.31914006102188275</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35342985062389676</v>
+        <v>0.99741962123935979</v>
       </c>
       <c r="B114">
-        <v>0.88212053679392555</v>
+        <v>0.60550880245962857</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36337270812901901</v>
+        <v>0.12516751483710398</v>
       </c>
       <c r="B115">
-        <v>0.49366005579093208</v>
+        <v>2.5654942383344426E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0095715761892876E-2</v>
+        <v>0.90795256969901239</v>
       </c>
       <c r="B116">
-        <v>0.68905380272480399</v>
+        <v>4.3015413881451248E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3538643228525814</v>
+        <v>0.31614700030445109</v>
       </c>
       <c r="B117">
-        <v>0.35058754238553924</v>
+        <v>0.31643432335365762</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18177803985101004</v>
+        <v>0.21126543515751262</v>
       </c>
       <c r="B118">
-        <v>0.49386369662107343</v>
+        <v>0.27992148900924474</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85252157557002883</v>
+        <v>6.1841452082204595E-2</v>
       </c>
       <c r="B119">
-        <v>0.87516030113595089</v>
+        <v>0.81255808156623577</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87763837575141868</v>
+        <v>0.19523277942801165</v>
       </c>
       <c r="B120">
-        <v>0.74658616106757836</v>
+        <v>0.30713850918908014</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57126568353987561</v>
+        <v>0.9573884417897881</v>
       </c>
       <c r="B121">
-        <v>0.6280575950713041</v>
+        <v>0.55055728420942784</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30670227934530814</v>
+        <v>0.16659944211853162</v>
       </c>
       <c r="B122">
-        <v>0.76353602154304112</v>
+        <v>8.9016814959943735E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86174351792954362</v>
+        <v>0.54626839170777197</v>
       </c>
       <c r="B123">
-        <v>0.44679928314674611</v>
+        <v>0.41302132123644786</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" ca="1" si="3"/>
-        <v>0.102566350707471</v>
+        <v>0.61736298492296282</v>
       </c>
       <c r="B124">
-        <v>0.5635670819368005</v>
+        <v>0.64169158387290015</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7332290814371105E-2</v>
+        <v>0.36010926883547745</v>
       </c>
       <c r="B125">
-        <v>0.81545518320373211</v>
+        <v>3.9192011418779482E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25636413449549211</v>
+        <v>0.21486557169414988</v>
       </c>
       <c r="B126">
-        <v>0.96204115359361075</v>
+        <v>0.30620002986215755</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86564682389531233</v>
+        <v>0.59191338883622457</v>
       </c>
       <c r="B127">
-        <v>0.90359372737311361</v>
+        <v>0.29478643571530871</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89493715488840764</v>
+        <v>0.51965266035292335</v>
       </c>
       <c r="B128">
-        <v>0.60189649344981921</v>
+        <v>0.17562109566186357</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51597996918463418</v>
+        <v>2.0599981993774441E-2</v>
       </c>
       <c r="B129">
-        <v>0.5134423158855187</v>
+        <v>0.84151128338557257</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74839063445787823</v>
+        <v>0.79381158651262362</v>
       </c>
       <c r="B130">
-        <v>0.55827833076234845</v>
+        <v>0.64012006704857194</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <f t="shared" ref="A131:B194" ca="1" si="4">RAND()</f>
-        <v>0.20647385131901197</v>
+        <f t="shared" ref="A131:A194" ca="1" si="4">RAND()</f>
+        <v>1.3382722683435766E-2</v>
       </c>
       <c r="B131">
-        <v>0.25223765788944474</v>
+        <v>0.77814558329100758</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77014376722977118</v>
+        <v>0.67703707121153323</v>
       </c>
       <c r="B132">
-        <v>0.48820957418462785</v>
+        <v>0.21511842678334703</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13436722609664242</v>
+        <v>0.41959539335853724</v>
       </c>
       <c r="B133">
-        <v>0.70768789628004158</v>
+        <v>0.92235087715399888</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19650397400908459</v>
+        <v>0.27225508121607556</v>
       </c>
       <c r="B134">
-        <v>0.50664416532942125</v>
+        <v>0.25610234424770917</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85300471211300255</v>
+        <v>0.91330535612971486</v>
       </c>
       <c r="B135">
-        <v>3.4634953745780739E-2</v>
+        <v>0.87782124024579389</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94751223313847888</v>
+        <v>0.67345215201616415</v>
       </c>
       <c r="B136">
-        <v>0.63255330108432617</v>
+        <v>0.56069650406700988</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39577218277022652</v>
+        <v>0.41695483983883419</v>
       </c>
       <c r="B137">
-        <v>0.99406546262683659</v>
+        <v>0.54754286314574607</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28419133676970565</v>
+        <v>0.30918116942335672</v>
       </c>
       <c r="B138">
-        <v>0.39415216690482513</v>
+        <v>0.38448197132731055</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64372158463181339</v>
+        <v>0.55931803785958589</v>
       </c>
       <c r="B139">
-        <v>0.11760467137286956</v>
+        <v>0.44256832925571543</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76014708166212785</v>
+        <v>0.36008686728720962</v>
       </c>
       <c r="B140">
-        <v>0.69636191821966975</v>
+        <v>0.44297855992540702</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4272515338797418</v>
+        <v>0.85848479855616777</v>
       </c>
       <c r="B141">
-        <v>0.60007641276116863</v>
+        <v>0.43133353333052027</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51748802492331969</v>
+        <v>0.4985466851634951</v>
       </c>
       <c r="B142">
-        <v>7.8626851070388803E-2</v>
+        <v>0.13109302929940059</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93016082232069175</v>
+        <v>5.9958353273316667E-2</v>
       </c>
       <c r="B143">
-        <v>0.89628266661008027</v>
+        <v>0.50707928228164789</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90777457886831914</v>
+        <v>6.3571058204676789E-2</v>
       </c>
       <c r="B144">
-        <v>0.93389847293722139</v>
+        <v>0.39838082162535593</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55452748226864945</v>
+        <v>0.93422307447677311</v>
       </c>
       <c r="B145">
-        <v>0.71473436326017337</v>
+        <v>0.57635905927961606</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65804279286539002</v>
+        <v>0.14856481294654567</v>
       </c>
       <c r="B146">
-        <v>0.84234009597275883</v>
+        <v>0.33902374652987854</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8474315050756065E-2</v>
+        <v>0.75970264010908028</v>
       </c>
       <c r="B147">
-        <v>0.49919967811999122</v>
+        <v>0.6257387537715744</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6089456123286872E-2</v>
+        <v>0.84218050328302541</v>
       </c>
       <c r="B148">
-        <v>0.15999720530626094</v>
+        <v>9.815878834492564E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41879972393859999</v>
+        <v>6.9224406643713765E-2</v>
       </c>
       <c r="B149">
-        <v>0.27025388901263259</v>
+        <v>0.18874854500223481</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82518008791875763</v>
+        <v>0.20394227355932593</v>
       </c>
       <c r="B150">
-        <v>0.40479701745313545</v>
+        <v>0.44741825339568875</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78534994472257136</v>
+        <v>0.26528526022954835</v>
       </c>
       <c r="B151">
-        <v>0.24741633405497698</v>
+        <v>0.29327278557411551</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38317775006734278</v>
+        <v>0.5886483298408951</v>
       </c>
       <c r="B152">
-        <v>9.1868204505468842E-2</v>
+        <v>0.11021835110083833</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16055845072545394</v>
+        <v>0.54815194932254263</v>
       </c>
       <c r="B153">
-        <v>0.30782923168749743</v>
+        <v>0.20402401007667992</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76701265632637439</v>
+        <v>0.30460816327545914</v>
       </c>
       <c r="B154">
-        <v>0.41356103517917198</v>
+        <v>0.89598450196922685</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11758519647456589</v>
+        <v>0.45711703269265125</v>
       </c>
       <c r="B155">
-        <v>4.1215119094819785E-2</v>
+        <v>0.21483743114618437</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33170956693520082</v>
+        <v>0.63483476362577806</v>
       </c>
       <c r="B156">
-        <v>0.34196667293745053</v>
+        <v>0.55408507556392084</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72023878692879317</v>
+        <v>0.43220637641300286</v>
       </c>
       <c r="B157">
-        <v>0.30648915602311544</v>
+        <v>0.86050523015401326</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6992081839562958</v>
+        <v>0.29538079866167943</v>
       </c>
       <c r="B158">
-        <v>0.20214799270553663</v>
+        <v>3.2733797059259939E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12550506859309485</v>
+        <v>0.83746054953142035</v>
       </c>
       <c r="B159">
-        <v>0.35789348984219493</v>
+        <v>0.63344014369356805</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61174605299089768</v>
+        <v>0.76101032954753078</v>
       </c>
       <c r="B160">
-        <v>0.71595577868049676</v>
+        <v>0.33035935918961457</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89952232453793346</v>
+        <v>0.18983343123251717</v>
       </c>
       <c r="B161">
-        <v>0.56227462020953989</v>
+        <v>0.26333061855769202</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1143498745341045</v>
+        <v>0.62284529265410182</v>
       </c>
       <c r="B162">
-        <v>0.49382641079923362</v>
+        <v>0.5761770089968834</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1657443110872494E-2</v>
+        <v>0.78355907097065192</v>
       </c>
       <c r="B163">
-        <v>0.7010477237383318</v>
+        <v>0.66486988734438546</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46343613888833246</v>
+        <v>0.39960000286412278</v>
       </c>
       <c r="B164">
-        <v>0.10641352321042474</v>
+        <v>0.16535190617484152</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50736337689762934</v>
+        <v>0.10966705607985572</v>
       </c>
       <c r="B165">
-        <v>0.56711136403862816</v>
+        <v>0.48478903281338059</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81751889536192746</v>
+        <v>0.45172121707778645</v>
       </c>
       <c r="B166">
-        <v>0.41043974913193715</v>
+        <v>0.5052983807607192</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55200918598837778</v>
+        <v>0.40086804813714283</v>
       </c>
       <c r="B167">
-        <v>0.19228326204038915</v>
+        <v>0.15913016839337502</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63511508848630538</v>
+        <v>0.20431286618299971</v>
       </c>
       <c r="B168">
-        <v>8.0767009628623598E-2</v>
+        <v>0.95273979785801399</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41926332083550877</v>
+        <v>0.30651391002508788</v>
       </c>
       <c r="B169">
-        <v>0.19024832983468787</v>
+        <v>0.35350851167915232</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87190776383488533</v>
+        <v>5.9451872544815876E-2</v>
       </c>
       <c r="B170">
-        <v>0.13514784838818239</v>
+        <v>0.76409446955160765</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3836568118846615</v>
+        <v>2.9006357915890568E-2</v>
       </c>
       <c r="B171">
-        <v>0.2447022004972278</v>
+        <v>0.27456819167642244</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68777396562945237</v>
+        <v>0.31957092184961711</v>
       </c>
       <c r="B172">
-        <v>0.6400147163541553</v>
+        <v>0.99832274329563297</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46766800858501401</v>
+        <v>0.11988239037318982</v>
       </c>
       <c r="B173">
-        <v>0.76754597891527587</v>
+        <v>0.42490364680188619</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95174969550250621</v>
+        <v>0.48550782753957888</v>
       </c>
       <c r="B174">
-        <v>0.89180929645933116</v>
+        <v>0.64521954273439353</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85424270648184353</v>
+        <v>0.66443393104652071</v>
       </c>
       <c r="B175">
-        <v>0.88997514156272917</v>
+        <v>0.49146779904174209</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50044464015067058</v>
+        <v>0.71209164889949728</v>
       </c>
       <c r="B176">
-        <v>4.5134891028031476E-2</v>
+        <v>0.12532232517395281</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4844165422609843</v>
+        <v>0.3453748403528506</v>
       </c>
       <c r="B177">
-        <v>0.19954973325314063</v>
+        <v>0.62004182808429398</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73731707713486838</v>
+        <v>0.74288075690768962</v>
       </c>
       <c r="B178">
-        <v>0.64638778980602762</v>
+        <v>0.76376011751331119</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80375556512439905</v>
+        <v>0.11508607511807301</v>
       </c>
       <c r="B179">
-        <v>0.44131389207961846</v>
+        <v>0.82003604876806502</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89818858100515075</v>
+        <v>0.70019616945271745</v>
       </c>
       <c r="B180">
-        <v>0.15795756846584785</v>
+        <v>0.68820733288127733</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3857262338264813E-2</v>
+        <v>0.49624099635347341</v>
       </c>
       <c r="B181">
-        <v>0.124866187867961</v>
+        <v>0.30222749328057918</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9182384771894373</v>
+        <v>5.1472704878950393E-2</v>
       </c>
       <c r="B182">
-        <v>0.35526398783486524</v>
+        <v>0.85200195205993179</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29658802856829081</v>
+        <v>0.73967901764578559</v>
       </c>
       <c r="B183">
-        <v>0.44715284931568022</v>
+        <v>0.18057828811249699</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1761479363097846E-2</v>
+        <v>0.6680925991270612</v>
       </c>
       <c r="B184">
-        <v>0.27547788113955896</v>
+        <v>0.99961186518322764</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99478623133202171</v>
+        <v>0.10681720859599064</v>
       </c>
       <c r="B185">
-        <v>0.62367546557095299</v>
+        <v>0.68687161631268256</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78473097010136228</v>
+        <v>0.48083432504752954</v>
       </c>
       <c r="B186">
-        <v>0.79541402467962541</v>
+        <v>0.76444355708168943</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19121168346737383</v>
+        <v>0.40627372412666618</v>
       </c>
       <c r="B187">
-        <v>0.86489073802295691</v>
+        <v>0.64657309679707464</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74752759906993649</v>
+        <v>7.778527231908372E-2</v>
       </c>
       <c r="B188">
-        <v>0.77060505923911604</v>
+        <v>0.22137307956879726</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49912278831280399</v>
+        <v>0.22510390120926693</v>
       </c>
       <c r="B189">
-        <v>0.8547236355816753</v>
+        <v>0.57455479454086966</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9433988482362885E-2</v>
+        <v>0.59463671236338478</v>
       </c>
       <c r="B190">
-        <v>0.41991074539046613</v>
+        <v>0.95835962594209145</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2390201135538893</v>
+        <v>0.52869706918800219</v>
       </c>
       <c r="B191">
-        <v>0.26820066603049564</v>
+        <v>0.61211161059237451</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8022451442945968E-2</v>
+        <v>5.7693277742729809E-2</v>
       </c>
       <c r="B192">
-        <v>0.82785400504994222</v>
+        <v>0.88364536777938485</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83584090746126638</v>
+        <v>0.17840772592181453</v>
       </c>
       <c r="B193">
-        <v>3.2261665959022467E-2</v>
+        <v>0.51966702264081899</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59401621649520009</v>
+        <v>0.90007954318376771</v>
       </c>
       <c r="B194">
-        <v>0.51831247551379867</v>
+        <v>3.1633907339630674E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <f t="shared" ref="A195:B201" ca="1" si="5">RAND()</f>
-        <v>0.18118275470678147</v>
+        <f t="shared" ref="A195:A201" ca="1" si="5">RAND()</f>
+        <v>5.6263892981580521E-2</v>
       </c>
       <c r="B195">
-        <v>0.85487321504077374</v>
+        <v>0.6764081877243554</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4535359975851323E-2</v>
+        <v>0.82064375447314075</v>
       </c>
       <c r="B196">
-        <v>0.85150434545478781</v>
+        <v>0.42215707491744459</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39198666944817562</v>
+        <v>0.79310020587824903</v>
       </c>
       <c r="B197">
-        <v>0.85627048440145503</v>
+        <v>0.21276314772257321</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6991973833047771</v>
+        <v>0.57140542102044811</v>
       </c>
       <c r="B198">
-        <v>0.23390214720729408</v>
+        <v>0.8751742156691642</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65538793679536378</v>
+        <v>0.22440014678035858</v>
       </c>
       <c r="B199">
-        <v>0.26168740301864446</v>
+        <v>1.4787615661481235E-3</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15038352537961241</v>
+        <v>0.156310296681062</v>
       </c>
       <c r="B200">
-        <v>0.37301399995441675</v>
+        <v>0.69967380482420216</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80529852239199784</v>
+        <v>0.5040134714222857</v>
       </c>
       <c r="B201">
-        <v>0.56217238132410707</v>
+        <v>0.86624929322321986</v>
       </c>
     </row>
   </sheetData>
